--- a/input/API CARTOLA RODADA 1.xlsx
+++ b/input/API CARTOLA RODADA 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbarbosa\Documents\Victor\C FC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/decf3d89747e6a39/Documentos/GitHub/cartola_analytics/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE4BA6A-A52E-483E-9799-B36891A2F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8BE4BA6A-A52E-483E-9799-B36891A2F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C42357F-FCE2-469D-9130-BE49A3FBFDF1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scouts" sheetId="1" r:id="rId1"/>
@@ -2610,18 +2610,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y676"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y676"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="5.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="5.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>253</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>186</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>410</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>360</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>364</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>454</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>568</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>412</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>416</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>252</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>211</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>362</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>405</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>316</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>245</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>569</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>236</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>332</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>387</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>264</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>570</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>292</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>251</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>247</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>192</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>193</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>201</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>381</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>333</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>209</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>232</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>184</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>163</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>222</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>37</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>330</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>572</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>205</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>428</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>194</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>312</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>246</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>229</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>185</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>573</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>306</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>207</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>279</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>501</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>240</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>221</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>419</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>79</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>217</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>124</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>70</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>391</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>166</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>302</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>177</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>325</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>87</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>195</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>167</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>266</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>398</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>67</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>376</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>237</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>439</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>78</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>359</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>440</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>210</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>300</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>142</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>367</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>112</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>234</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>250</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>298</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>369</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>209</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>150</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>365</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>216</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>94</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>181</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>103</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>278</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>366</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>148</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>575</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>40</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>126</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>576</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>61</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>210</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>577</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>453</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>434</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>171</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>269</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>84</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>134</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>55</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>322</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>197</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>89</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>35</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>248</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>290</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>328</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>296</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>281</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>66</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>62</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>307</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>110</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>82</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>285</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>274</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>215</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>212</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>64</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>320</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>147</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>355</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>185</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>430</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>380</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>97</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>233</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>51</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>310</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>27</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>204</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>308</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>286</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>351</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>77</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>59</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>54</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>159</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>578</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>276</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>580</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>581</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>315</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>582</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>90</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>583</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>584</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>585</v>
       </c>
@@ -18098,7 +18098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>431</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>586</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>52</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>587</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>39</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>589</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>388</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>81</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>158</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>339</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>590</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>591</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>592</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>593</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>183</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>170</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>417</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>594</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>383</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>595</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>94</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>596</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>292</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>473</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>114</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>546</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>311</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>345</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>597</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>598</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>599</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>156</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>600</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>601</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>602</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>289</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>603</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>604</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>320</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>605</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>393</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>525</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>606</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>473</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>607</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>547</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>212</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>608</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>609</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>169</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>85</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>610</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>347</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>611</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>132</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>612</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>613</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>58</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>48</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>614</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>129</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>157</v>
       </c>
@@ -22872,7 +22872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>29</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>615</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>616</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>617</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>464</v>
       </c>
@@ -23257,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>490</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>91</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>88</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>82</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>304</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>98</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>618</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>619</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>143</v>
       </c>
@@ -23950,7 +23950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>292</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>44</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>295</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>331</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>620</v>
       </c>
@@ -24335,7 +24335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>127</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>457</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>621</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>335</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>238</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>469</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>363</v>
       </c>
@@ -24874,7 +24874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>149</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>352</v>
       </c>
@@ -25028,7 +25028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>622</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>623</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>191</v>
       </c>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>346</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>146</v>
       </c>
@@ -25413,7 +25413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>102</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>624</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>625</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>231</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>282</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>35</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>111</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>104</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>386</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>504</v>
       </c>
@@ -26183,7 +26183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>28</v>
       </c>
@@ -26260,7 +26260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>46</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>626</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>73</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>627</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>138</v>
       </c>
@@ -26645,7 +26645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>628</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>629</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>630</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>128</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>31</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>631</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>632</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>106</v>
       </c>
@@ -27338,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>633</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>354</v>
       </c>
@@ -27492,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>208</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>396</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>260</v>
       </c>
@@ -27723,7 +27723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>161</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>351</v>
       </c>
@@ -27877,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>443</v>
       </c>
@@ -27954,7 +27954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>348</v>
       </c>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>335</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>174</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>120</v>
       </c>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>634</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>551</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>459</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>213</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>230</v>
       </c>
@@ -28647,7 +28647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>100</v>
       </c>
@@ -28724,7 +28724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>435</v>
       </c>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>635</v>
       </c>
@@ -28878,7 +28878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>441</v>
       </c>
@@ -28955,7 +28955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>413</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>636</v>
       </c>
@@ -29109,7 +29109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>329</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>326</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>637</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>340</v>
       </c>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>379</v>
       </c>
@@ -29494,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>638</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>168</v>
       </c>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>241</v>
       </c>
@@ -29725,7 +29725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>639</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>640</v>
       </c>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>641</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>414</v>
       </c>
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>297</v>
       </c>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>219</v>
       </c>
@@ -30187,7 +30187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>288</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>642</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>131</v>
       </c>
@@ -30418,7 +30418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>321</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>643</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>117</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>377</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>644</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>495</v>
       </c>
@@ -30880,7 +30880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>373</v>
       </c>
@@ -30957,7 +30957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>361</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>243</v>
       </c>
@@ -31111,7 +31111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>452</v>
       </c>
@@ -31188,7 +31188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>645</v>
       </c>
@@ -31265,7 +31265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>447</v>
       </c>
@@ -31342,7 +31342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>142</v>
       </c>
@@ -31419,7 +31419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>404</v>
       </c>
@@ -31496,7 +31496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>646</v>
       </c>
@@ -31573,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>265</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>442</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>384</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>647</v>
       </c>
@@ -31881,7 +31881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>68</v>
       </c>
@@ -31958,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>648</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>426</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>649</v>
       </c>
@@ -32189,7 +32189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>263</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>305</v>
       </c>
@@ -32343,7 +32343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>650</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>407</v>
       </c>
@@ -32497,7 +32497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>422</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>105</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>271</v>
       </c>
@@ -32728,7 +32728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>651</v>
       </c>
@@ -32805,7 +32805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>81</v>
       </c>
@@ -32882,7 +32882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>451</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>327</v>
       </c>
@@ -33036,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>652</v>
       </c>
@@ -33113,7 +33113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>488</v>
       </c>
@@ -33190,7 +33190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>653</v>
       </c>
@@ -33267,7 +33267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>257</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>244</v>
       </c>
@@ -33421,7 +33421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>491</v>
       </c>
@@ -33498,7 +33498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>654</v>
       </c>
@@ -33575,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>173</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>119</v>
       </c>
@@ -33729,7 +33729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>378</v>
       </c>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>655</v>
       </c>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>189</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>172</v>
       </c>
@@ -34037,7 +34037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>368</v>
       </c>
@@ -34114,7 +34114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>291</v>
       </c>
@@ -34191,7 +34191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>235</v>
       </c>
@@ -34268,7 +34268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>399</v>
       </c>
@@ -34345,7 +34345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>425</v>
       </c>
@@ -34422,7 +34422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>196</v>
       </c>
@@ -34499,7 +34499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>433</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>262</v>
       </c>
@@ -34653,7 +34653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>199</v>
       </c>
@@ -34730,7 +34730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>206</v>
       </c>
@@ -34807,7 +34807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>478</v>
       </c>
@@ -34884,7 +34884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>656</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>657</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>429</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>108</v>
       </c>
@@ -35192,7 +35192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>25</v>
       </c>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>449</v>
       </c>
@@ -35346,7 +35346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>658</v>
       </c>
@@ -35423,7 +35423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>65</v>
       </c>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>659</v>
       </c>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>660</v>
       </c>
@@ -35654,7 +35654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>498</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>489</v>
       </c>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>235</v>
       </c>
@@ -35885,7 +35885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>390</v>
       </c>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>661</v>
       </c>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>259</v>
       </c>
@@ -36116,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>662</v>
       </c>
@@ -36193,7 +36193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>519</v>
       </c>
@@ -36270,7 +36270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>663</v>
       </c>
@@ -36347,7 +36347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>664</v>
       </c>
@@ -36424,7 +36424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>198</v>
       </c>
@@ -36501,7 +36501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>506</v>
       </c>
@@ -36578,7 +36578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>500</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>665</v>
       </c>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>666</v>
       </c>
@@ -36809,7 +36809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>472</v>
       </c>
@@ -36886,7 +36886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>242</v>
       </c>
@@ -36963,7 +36963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>667</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>668</v>
       </c>
@@ -37117,7 +37117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>669</v>
       </c>
@@ -37194,7 +37194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>670</v>
       </c>
@@ -37271,7 +37271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>671</v>
       </c>
@@ -37348,7 +37348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>256</v>
       </c>
@@ -37425,7 +37425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>337</v>
       </c>
@@ -37502,7 +37502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>672</v>
       </c>
@@ -37579,7 +37579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>673</v>
       </c>
@@ -37656,7 +37656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>402</v>
       </c>
@@ -37733,7 +37733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>549</v>
       </c>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>455</v>
       </c>
@@ -37887,7 +37887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>674</v>
       </c>
@@ -37964,7 +37964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>351</v>
       </c>
@@ -38041,7 +38041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>675</v>
       </c>
@@ -38118,7 +38118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>676</v>
       </c>
@@ -38195,7 +38195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>494</v>
       </c>
@@ -38272,7 +38272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>677</v>
       </c>
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>323</v>
       </c>
@@ -38426,7 +38426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>493</v>
       </c>
@@ -38503,7 +38503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>678</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>507</v>
       </c>
@@ -38657,7 +38657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>123</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>338</v>
       </c>
@@ -38811,7 +38811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>303</v>
       </c>
@@ -38888,7 +38888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>438</v>
       </c>
@@ -38965,7 +38965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>464</v>
       </c>
@@ -39042,7 +39042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>415</v>
       </c>
@@ -39119,7 +39119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>284</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>184</v>
       </c>
@@ -39273,7 +39273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>280</v>
       </c>
@@ -39350,7 +39350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>63</v>
       </c>
@@ -39427,7 +39427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>76</v>
       </c>
@@ -39504,7 +39504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>502</v>
       </c>
@@ -39581,7 +39581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>462</v>
       </c>
@@ -39658,7 +39658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>375</v>
       </c>
@@ -39735,7 +39735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>505</v>
       </c>
@@ -39812,7 +39812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>679</v>
       </c>
@@ -39889,7 +39889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>680</v>
       </c>
@@ -39966,7 +39966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>681</v>
       </c>
@@ -40043,7 +40043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>486</v>
       </c>
@@ -40120,7 +40120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>682</v>
       </c>
@@ -40197,7 +40197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>97</v>
       </c>
@@ -40274,7 +40274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>683</v>
       </c>
@@ -40351,7 +40351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>684</v>
       </c>
@@ -40428,7 +40428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>481</v>
       </c>
@@ -40505,7 +40505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>685</v>
       </c>
@@ -40582,7 +40582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>108</v>
       </c>
@@ -40659,7 +40659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>485</v>
       </c>
@@ -40736,7 +40736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>686</v>
       </c>
@@ -40813,7 +40813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>687</v>
       </c>
@@ -40890,7 +40890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>341</v>
       </c>
@@ -40967,7 +40967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>688</v>
       </c>
@@ -41044,7 +41044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>421</v>
       </c>
@@ -41121,7 +41121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>248</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>689</v>
       </c>
@@ -41275,7 +41275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>151</v>
       </c>
@@ -41352,7 +41352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>432</v>
       </c>
@@ -41429,7 +41429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>230</v>
       </c>
@@ -41506,7 +41506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>479</v>
       </c>
@@ -41583,7 +41583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>690</v>
       </c>
@@ -41660,7 +41660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>691</v>
       </c>
@@ -41737,7 +41737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>545</v>
       </c>
@@ -41814,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>692</v>
       </c>
@@ -41891,7 +41891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>693</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>214</v>
       </c>
@@ -42045,7 +42045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>623</v>
       </c>
@@ -42122,7 +42122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>694</v>
       </c>
@@ -42199,7 +42199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>695</v>
       </c>
@@ -42276,7 +42276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>696</v>
       </c>
@@ -42353,7 +42353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>249</v>
       </c>
@@ -42430,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>697</v>
       </c>
@@ -42507,7 +42507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>698</v>
       </c>
@@ -42584,7 +42584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>699</v>
       </c>
@@ -42661,7 +42661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>700</v>
       </c>
@@ -42738,7 +42738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>701</v>
       </c>
@@ -42815,7 +42815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>702</v>
       </c>
@@ -42892,7 +42892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>703</v>
       </c>
@@ -42969,7 +42969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>97</v>
       </c>
@@ -43046,7 +43046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>203</v>
       </c>
@@ -43123,7 +43123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>463</v>
       </c>
@@ -43200,7 +43200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>704</v>
       </c>
@@ -43277,7 +43277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>324</v>
       </c>
@@ -43354,7 +43354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>151</v>
       </c>
@@ -43431,7 +43431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>705</v>
       </c>
@@ -43508,7 +43508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>385</v>
       </c>
@@ -43585,7 +43585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>460</v>
       </c>
@@ -43662,7 +43662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>706</v>
       </c>
@@ -43739,7 +43739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>470</v>
       </c>
@@ -43816,7 +43816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>476</v>
       </c>
@@ -43893,7 +43893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>248</v>
       </c>
@@ -43970,7 +43970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>175</v>
       </c>
@@ -44047,7 +44047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>707</v>
       </c>
@@ -44124,7 +44124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>482</v>
       </c>
@@ -44201,7 +44201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>403</v>
       </c>
@@ -44278,7 +44278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>708</v>
       </c>
@@ -44355,7 +44355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>437</v>
       </c>
@@ -44432,7 +44432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>709</v>
       </c>
@@ -44509,7 +44509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>710</v>
       </c>
@@ -44586,7 +44586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>711</v>
       </c>
@@ -44663,7 +44663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>503</v>
       </c>
@@ -44740,7 +44740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>448</v>
       </c>
@@ -44817,7 +44817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>712</v>
       </c>
@@ -44894,7 +44894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>713</v>
       </c>
@@ -44971,7 +44971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>714</v>
       </c>
@@ -45048,7 +45048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>199</v>
       </c>
@@ -45125,7 +45125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>423</v>
       </c>
@@ -45202,7 +45202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>715</v>
       </c>
@@ -45279,7 +45279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>70</v>
       </c>
@@ -45356,7 +45356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>139</v>
       </c>
@@ -45433,7 +45433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>254</v>
       </c>
@@ -45510,7 +45510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>224</v>
       </c>
@@ -45587,7 +45587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>122</v>
       </c>
@@ -45664,7 +45664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>97</v>
       </c>
@@ -45741,7 +45741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>294</v>
       </c>
@@ -45818,7 +45818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>267</v>
       </c>
@@ -45895,7 +45895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>185</v>
       </c>
@@ -45972,7 +45972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>313</v>
       </c>
@@ -46049,7 +46049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>303</v>
       </c>
@@ -46126,7 +46126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>301</v>
       </c>
@@ -46203,7 +46203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>477</v>
       </c>
@@ -46280,7 +46280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>475</v>
       </c>
@@ -46357,7 +46357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>468</v>
       </c>
@@ -46434,7 +46434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>467</v>
       </c>
@@ -46511,7 +46511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>50</v>
       </c>
@@ -46588,7 +46588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>397</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>314</v>
       </c>
@@ -46742,7 +46742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>716</v>
       </c>
@@ -46819,7 +46819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>446</v>
       </c>
@@ -46896,7 +46896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>450</v>
       </c>
@@ -46973,7 +46973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>717</v>
       </c>
@@ -47050,7 +47050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>287</v>
       </c>
@@ -47127,7 +47127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>427</v>
       </c>
@@ -47204,7 +47204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>400</v>
       </c>
@@ -47281,7 +47281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>474</v>
       </c>
@@ -47358,7 +47358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>218</v>
       </c>
@@ -47435,7 +47435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>484</v>
       </c>
@@ -47512,7 +47512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>409</v>
       </c>
@@ -47589,7 +47589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>496</v>
       </c>
@@ -47666,7 +47666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>718</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>397</v>
       </c>
@@ -47820,7 +47820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>466</v>
       </c>
@@ -47897,7 +47897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>444</v>
       </c>
@@ -47974,7 +47974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>272</v>
       </c>
@@ -48051,7 +48051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>372</v>
       </c>
@@ -48128,7 +48128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>392</v>
       </c>
@@ -48205,7 +48205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>418</v>
       </c>
@@ -48282,7 +48282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>420</v>
       </c>
@@ -48359,7 +48359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>465</v>
       </c>
@@ -48436,7 +48436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>395</v>
       </c>
@@ -48513,7 +48513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>255</v>
       </c>
@@ -48590,7 +48590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>125</v>
       </c>
@@ -48667,7 +48667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>374</v>
       </c>
@@ -48744,7 +48744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>548</v>
       </c>
@@ -48821,7 +48821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>371</v>
       </c>
@@ -48898,7 +48898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>107</v>
       </c>
@@ -48975,7 +48975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>165</v>
       </c>
@@ -49052,7 +49052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>487</v>
       </c>
@@ -49129,7 +49129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>483</v>
       </c>
@@ -49206,7 +49206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>180</v>
       </c>
@@ -49283,7 +49283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>145</v>
       </c>
@@ -49360,7 +49360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>357</v>
       </c>
@@ -49437,7 +49437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>270</v>
       </c>
@@ -49514,7 +49514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>342</v>
       </c>
@@ -49591,7 +49591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>223</v>
       </c>
@@ -49668,7 +49668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>226</v>
       </c>
@@ -49745,7 +49745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>228</v>
       </c>
@@ -49822,7 +49822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>299</v>
       </c>
@@ -49899,7 +49899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>408</v>
       </c>
@@ -49976,7 +49976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>317</v>
       </c>
@@ -50053,7 +50053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>436</v>
       </c>
@@ -50130,7 +50130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>320</v>
       </c>
@@ -50207,7 +50207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>492</v>
       </c>
@@ -50284,7 +50284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>182</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>411</v>
       </c>
@@ -50438,7 +50438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>358</v>
       </c>
@@ -50515,7 +50515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>33</v>
       </c>
@@ -50592,7 +50592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>356</v>
       </c>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>293</v>
       </c>
@@ -50746,7 +50746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>497</v>
       </c>
@@ -50823,7 +50823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>324</v>
       </c>
@@ -50900,7 +50900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>344</v>
       </c>
@@ -50977,7 +50977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>76</v>
       </c>
@@ -51054,7 +51054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>445</v>
       </c>
@@ -51131,7 +51131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>273</v>
       </c>
@@ -51208,7 +51208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>336</v>
       </c>
@@ -51285,7 +51285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>499</v>
       </c>
@@ -51362,7 +51362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>480</v>
       </c>
@@ -51439,7 +51439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>719</v>
       </c>
@@ -51516,7 +51516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>268</v>
       </c>
@@ -51593,7 +51593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>239</v>
       </c>
@@ -51670,7 +51670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>334</v>
       </c>
@@ -51747,7 +51747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>275</v>
       </c>
@@ -51824,7 +51824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>350</v>
       </c>
@@ -51901,7 +51901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>456</v>
       </c>
@@ -51978,7 +51978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>424</v>
       </c>
@@ -52055,7 +52055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>461</v>
       </c>
@@ -52132,7 +52132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>343</v>
       </c>
@@ -52209,7 +52209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>488</v>
       </c>
@@ -52286,7 +52286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>155</v>
       </c>
@@ -52363,7 +52363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>309</v>
       </c>
@@ -52440,7 +52440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>720</v>
       </c>
@@ -52517,7 +52517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>261</v>
       </c>
@@ -52594,7 +52594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>118</v>
       </c>
@@ -52671,7 +52671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>80</v>
       </c>
@@ -52748,7 +52748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>190</v>
       </c>
@@ -52825,7 +52825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>401</v>
       </c>
@@ -52902,7 +52902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>382</v>
       </c>
@@ -52979,7 +52979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>220</v>
       </c>
@@ -53056,7 +53056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>370</v>
       </c>
@@ -53133,7 +53133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>188</v>
       </c>
@@ -53210,7 +53210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>277</v>
       </c>
@@ -53287,7 +53287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>152</v>
       </c>
@@ -53364,7 +53364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>471</v>
       </c>
@@ -53441,7 +53441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>227</v>
       </c>
@@ -53518,7 +53518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>353</v>
       </c>
@@ -53595,7 +53595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>417</v>
       </c>
@@ -53672,7 +53672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>319</v>
       </c>
@@ -53749,7 +53749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>258</v>
       </c>
@@ -53826,7 +53826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>41</v>
       </c>
@@ -53903,7 +53903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>86</v>
       </c>
@@ -53980,7 +53980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>123</v>
       </c>
@@ -54057,7 +54057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>432</v>
       </c>
@@ -54134,7 +54134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>283</v>
       </c>
@@ -54211,7 +54211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>394</v>
       </c>
@@ -54288,7 +54288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>225</v>
       </c>
@@ -54365,7 +54365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>389</v>
       </c>
@@ -54442,7 +54442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>116</v>
       </c>
@@ -54519,7 +54519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>458</v>
       </c>
@@ -54596,7 +54596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>721</v>
       </c>
@@ -54682,19 +54682,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98110EF-EA01-4BEB-9897-73847D41D297}">
   <dimension ref="A1:AK337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="34" max="34" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="34" max="34" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>508</v>
       </c>
@@ -54807,7 +54808,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100084</v>
       </c>
@@ -54860,7 +54861,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>78850</v>
       </c>
@@ -54916,7 +54917,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>78605</v>
       </c>
@@ -54981,7 +54982,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>78445</v>
       </c>
@@ -55046,7 +55047,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>78435</v>
       </c>
@@ -55108,7 +55109,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>78248</v>
       </c>
@@ -55173,7 +55174,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>78117</v>
       </c>
@@ -55232,7 +55233,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>77777</v>
       </c>
@@ -55294,7 +55295,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>77656</v>
       </c>
@@ -55353,7 +55354,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>77485</v>
       </c>
@@ -55415,7 +55416,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>732</v>
       </c>
@@ -55468,7 +55469,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>735</v>
       </c>
@@ -55521,7 +55522,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>73384</v>
       </c>
@@ -55583,7 +55584,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>72493</v>
       </c>
@@ -55642,7 +55643,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>72460</v>
       </c>
@@ -55698,7 +55699,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>533</v>
       </c>
@@ -55751,7 +55752,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>72294</v>
       </c>
@@ -55813,7 +55814,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>71684</v>
       </c>
@@ -55875,7 +55876,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>78855</v>
       </c>
@@ -55928,7 +55929,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>71631</v>
       </c>
@@ -55987,7 +55988,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>79701</v>
       </c>
@@ -56049,7 +56050,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>80196</v>
       </c>
@@ -56108,7 +56109,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>85048</v>
       </c>
@@ -56176,7 +56177,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>84927</v>
       </c>
@@ -56238,7 +56239,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>84847</v>
       </c>
@@ -56300,7 +56301,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>84816</v>
       </c>
@@ -56362,7 +56363,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>84735</v>
       </c>
@@ -56424,7 +56425,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>84626</v>
       </c>
@@ -56489,7 +56490,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>84558</v>
       </c>
@@ -56551,7 +56552,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>84339</v>
       </c>
@@ -56616,7 +56617,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>83528</v>
       </c>
@@ -56675,7 +56676,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>83433</v>
       </c>
@@ -56734,7 +56735,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>83263</v>
       </c>
@@ -56793,7 +56794,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>82730</v>
       </c>
@@ -56852,7 +56853,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>82628</v>
       </c>
@@ -56911,7 +56912,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>82455</v>
       </c>
@@ -56973,7 +56974,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>81952</v>
       </c>
@@ -57035,7 +57036,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>80313</v>
       </c>
@@ -57094,7 +57095,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>80287</v>
       </c>
@@ -57165,7 +57166,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>80129</v>
       </c>
@@ -57221,7 +57222,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>85403</v>
       </c>
@@ -57283,7 +57284,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>71227</v>
       </c>
@@ -57345,7 +57346,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>71043</v>
       </c>
@@ -57407,7 +57408,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61987</v>
       </c>
@@ -57463,7 +57464,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>51772</v>
       </c>
@@ -57519,7 +57520,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>51413</v>
       </c>
@@ -57578,7 +57579,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>529</v>
       </c>
@@ -57631,7 +57632,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>42500</v>
       </c>
@@ -57690,7 +57691,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>42234</v>
       </c>
@@ -57749,7 +57750,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>42222</v>
       </c>
@@ -57805,7 +57806,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>42135</v>
       </c>
@@ -57861,7 +57862,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>540</v>
       </c>
@@ -57914,7 +57915,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>531</v>
       </c>
@@ -57967,7 +57968,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>39656</v>
       </c>
@@ -58029,7 +58030,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>39148</v>
       </c>
@@ -58094,7 +58095,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>37656</v>
       </c>
@@ -58156,7 +58157,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>147883</v>
       </c>
@@ -58209,7 +58210,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>146040</v>
       </c>
@@ -58268,7 +58269,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>145744</v>
       </c>
@@ -58327,7 +58328,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>145404</v>
       </c>
@@ -58383,7 +58384,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62977</v>
       </c>
@@ -58439,7 +58440,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>71123</v>
       </c>
@@ -58498,7 +58499,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63013</v>
       </c>
@@ -58551,7 +58552,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68685</v>
       </c>
@@ -58613,7 +58614,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>70958</v>
       </c>
@@ -58672,7 +58673,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70944</v>
       </c>
@@ -58737,7 +58738,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>528</v>
       </c>
@@ -58790,7 +58791,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>70666</v>
       </c>
@@ -58849,7 +58850,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70449</v>
       </c>
@@ -58911,7 +58912,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70360</v>
       </c>
@@ -58970,7 +58971,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70164</v>
       </c>
@@ -59026,7 +59027,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69208</v>
       </c>
@@ -59082,7 +59083,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>69140</v>
       </c>
@@ -59150,7 +59151,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69012</v>
       </c>
@@ -59209,7 +59210,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>68996</v>
       </c>
@@ -59268,7 +59269,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>68938</v>
       </c>
@@ -59330,7 +59331,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>68928</v>
       </c>
@@ -59389,7 +59390,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>68920</v>
       </c>
@@ -59454,7 +59455,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>68899</v>
       </c>
@@ -59519,7 +59520,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>68806</v>
       </c>
@@ -59578,7 +59579,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>68708</v>
       </c>
@@ -59640,7 +59641,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>63289</v>
       </c>
@@ -59705,7 +59706,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>145036</v>
       </c>
@@ -59758,7 +59759,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85626</v>
       </c>
@@ -59817,7 +59818,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86757</v>
       </c>
@@ -59882,7 +59883,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>97468</v>
       </c>
@@ -59941,7 +59942,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>97460</v>
       </c>
@@ -59997,7 +59998,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>97432</v>
       </c>
@@ -60053,7 +60054,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>534</v>
       </c>
@@ -60106,7 +60107,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>97321</v>
       </c>
@@ -60174,7 +60175,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>97095</v>
       </c>
@@ -60242,7 +60243,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96793</v>
       </c>
@@ -60310,7 +60311,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>96610</v>
       </c>
@@ -60372,7 +60373,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>96591</v>
       </c>
@@ -60440,7 +60441,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95799</v>
       </c>
@@ -60496,7 +60497,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95556</v>
       </c>
@@ -60564,7 +60565,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95466</v>
       </c>
@@ -60623,7 +60624,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>95332</v>
       </c>
@@ -60688,7 +60689,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>94968</v>
       </c>
@@ -60756,7 +60757,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>94583</v>
       </c>
@@ -60821,7 +60822,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>94154</v>
       </c>
@@ -60886,7 +60887,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>94067</v>
       </c>
@@ -60948,7 +60949,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>97642</v>
       </c>
@@ -61007,7 +61008,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>93988</v>
       </c>
@@ -61066,7 +61067,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>97653</v>
       </c>
@@ -61122,7 +61123,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>97795</v>
       </c>
@@ -61172,7 +61173,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>99440</v>
       </c>
@@ -61240,7 +61241,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>542</v>
       </c>
@@ -61293,7 +61294,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>99274</v>
       </c>
@@ -61355,7 +61356,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>99213</v>
       </c>
@@ -61417,7 +61418,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>98909</v>
       </c>
@@ -61482,7 +61483,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>98873</v>
       </c>
@@ -61541,7 +61542,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>98672</v>
       </c>
@@ -61597,7 +61598,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>98517</v>
       </c>
@@ -61659,7 +61660,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>98384</v>
       </c>
@@ -61721,7 +61722,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>98225</v>
       </c>
@@ -61774,7 +61775,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98224</v>
       </c>
@@ -61833,7 +61834,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>98022</v>
       </c>
@@ -61886,7 +61887,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>97969</v>
       </c>
@@ -61945,7 +61946,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>97906</v>
       </c>
@@ -62001,7 +62002,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>97878</v>
       </c>
@@ -62060,7 +62061,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>97867</v>
       </c>
@@ -62116,7 +62117,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>97810</v>
       </c>
@@ -62181,7 +62182,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>97735</v>
       </c>
@@ -62237,7 +62238,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>86292</v>
       </c>
@@ -62296,7 +62297,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>93882</v>
       </c>
@@ -62355,7 +62356,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>93478</v>
       </c>
@@ -62417,7 +62418,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>90285</v>
       </c>
@@ -62473,7 +62474,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>90031</v>
       </c>
@@ -62535,7 +62536,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>89918</v>
       </c>
@@ -62591,7 +62592,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>89883</v>
       </c>
@@ -62653,7 +62654,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>89840</v>
       </c>
@@ -62712,7 +62713,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>89837</v>
       </c>
@@ -62777,7 +62778,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>89274</v>
       </c>
@@ -62842,7 +62843,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>89273</v>
       </c>
@@ -62901,7 +62902,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>89256</v>
       </c>
@@ -62966,7 +62967,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>88312</v>
       </c>
@@ -63025,7 +63026,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>541</v>
       </c>
@@ -63078,7 +63079,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>87999</v>
       </c>
@@ -63134,7 +63135,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>87863</v>
       </c>
@@ -63190,7 +63191,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>87742</v>
       </c>
@@ -63249,7 +63250,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>87225</v>
       </c>
@@ -63314,7 +63315,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>87008</v>
       </c>
@@ -63373,7 +63374,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>86863</v>
       </c>
@@ -63429,7 +63430,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>90302</v>
       </c>
@@ -63497,7 +63498,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>93790</v>
       </c>
@@ -63556,7 +63557,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>90370</v>
       </c>
@@ -63612,7 +63613,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>90588</v>
       </c>
@@ -63671,7 +63672,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>93411</v>
       </c>
@@ -63730,7 +63731,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>92981</v>
       </c>
@@ -63789,7 +63790,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>92854</v>
       </c>
@@ -63854,7 +63855,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>92696</v>
       </c>
@@ -63922,7 +63923,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>744</v>
       </c>
@@ -63975,7 +63976,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>543</v>
       </c>
@@ -64028,7 +64029,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>92171</v>
       </c>
@@ -64090,7 +64091,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>91908</v>
       </c>
@@ -64155,7 +64156,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>91772</v>
       </c>
@@ -64214,7 +64215,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>91706</v>
       </c>
@@ -64279,7 +64280,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>91573</v>
       </c>
@@ -64335,7 +64336,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>91473</v>
       </c>
@@ -64394,7 +64395,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>91101</v>
       </c>
@@ -64453,7 +64454,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>90943</v>
       </c>
@@ -64512,7 +64513,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>90768</v>
       </c>
@@ -64568,7 +64569,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>90715</v>
       </c>
@@ -64624,7 +64625,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>90703</v>
       </c>
@@ -64689,7 +64690,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>90532</v>
       </c>
@@ -64751,7 +64752,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>143488</v>
       </c>
@@ -64807,7 +64808,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>143193</v>
       </c>
@@ -64878,7 +64879,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>142890</v>
       </c>
@@ -64943,7 +64944,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>106104</v>
       </c>
@@ -64999,7 +65000,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>105990</v>
       </c>
@@ -65055,7 +65056,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>105949</v>
       </c>
@@ -65117,7 +65118,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>105903</v>
       </c>
@@ -65173,7 +65174,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>105664</v>
       </c>
@@ -65229,7 +65230,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>105647</v>
       </c>
@@ -65294,7 +65295,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>105584</v>
       </c>
@@ -65350,7 +65351,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>105563</v>
       </c>
@@ -65418,7 +65419,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>105531</v>
       </c>
@@ -65483,7 +65484,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>105436</v>
       </c>
@@ -65548,7 +65549,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>105214</v>
       </c>
@@ -65610,7 +65611,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>105213</v>
       </c>
@@ -65669,7 +65670,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>105175</v>
       </c>
@@ -65734,7 +65735,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>105157</v>
       </c>
@@ -65787,7 +65788,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>105114</v>
       </c>
@@ -65846,7 +65847,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>105089</v>
       </c>
@@ -65908,7 +65909,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>105068</v>
       </c>
@@ -65967,7 +65968,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>106202</v>
       </c>
@@ -66029,7 +66030,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>105047</v>
       </c>
@@ -66085,7 +66086,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>106294</v>
       </c>
@@ -66141,7 +66142,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>106822</v>
       </c>
@@ -66194,7 +66195,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>109401</v>
       </c>
@@ -66265,7 +66266,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>109336</v>
       </c>
@@ -66327,7 +66328,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>109127</v>
       </c>
@@ -66383,7 +66384,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>109096</v>
       </c>
@@ -66448,7 +66449,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>108713</v>
       </c>
@@ -66504,7 +66505,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>108588</v>
       </c>
@@ -66560,7 +66561,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>108474</v>
       </c>
@@ -66616,7 +66617,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>107989</v>
       </c>
@@ -66672,7 +66673,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>107985</v>
       </c>
@@ -66734,7 +66735,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>107873</v>
       </c>
@@ -66799,7 +66800,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>107700</v>
       </c>
@@ -66858,7 +66859,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>107453</v>
       </c>
@@ -66920,7 +66921,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>107231</v>
       </c>
@@ -66982,7 +66983,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>107174</v>
       </c>
@@ -67041,7 +67042,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>107173</v>
       </c>
@@ -67103,7 +67104,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>107172</v>
       </c>
@@ -67168,7 +67169,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>107093</v>
       </c>
@@ -67230,7 +67231,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>106708</v>
       </c>
@@ -67295,7 +67296,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>109573</v>
       </c>
@@ -67357,7 +67358,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>104994</v>
       </c>
@@ -67416,7 +67417,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>104783</v>
       </c>
@@ -67481,7 +67482,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>102256</v>
       </c>
@@ -67543,7 +67544,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>102130</v>
       </c>
@@ -67605,7 +67606,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>101960</v>
       </c>
@@ -67670,7 +67671,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>101908</v>
       </c>
@@ -67735,7 +67736,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>101727</v>
       </c>
@@ -67803,7 +67804,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>101597</v>
       </c>
@@ -67868,7 +67869,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>101574</v>
       </c>
@@ -67930,7 +67931,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>101405</v>
       </c>
@@ -67989,7 +67990,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>101393</v>
       </c>
@@ -68045,7 +68046,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>101314</v>
       </c>
@@ -68110,7 +68111,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>101254</v>
       </c>
@@ -68175,7 +68176,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>100987</v>
       </c>
@@ -68237,7 +68238,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>100898</v>
       </c>
@@ -68302,7 +68303,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>100842</v>
       </c>
@@ -68361,7 +68362,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>100742</v>
       </c>
@@ -68417,7 +68418,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="228" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>100652</v>
       </c>
@@ -68476,7 +68477,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="229" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>100342</v>
       </c>
@@ -68538,7 +68539,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="230" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>102667</v>
       </c>
@@ -68603,7 +68604,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="231" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>104811</v>
       </c>
@@ -68659,7 +68660,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>102796</v>
       </c>
@@ -68715,7 +68716,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="233" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>102928</v>
       </c>
@@ -68783,7 +68784,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="234" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>104758</v>
       </c>
@@ -68845,7 +68846,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="235" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>530</v>
       </c>
@@ -68898,7 +68899,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="236" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>104693</v>
       </c>
@@ -68957,7 +68958,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="237" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>104519</v>
       </c>
@@ -69019,7 +69020,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="238" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>104502</v>
       </c>
@@ -69078,7 +69079,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="239" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>104470</v>
       </c>
@@ -69134,7 +69135,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="240" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>104330</v>
       </c>
@@ -69190,7 +69191,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="241" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>104257</v>
       </c>
@@ -69255,7 +69256,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>104134</v>
       </c>
@@ -69320,7 +69321,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>104084</v>
       </c>
@@ -69379,7 +69380,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>104075</v>
       </c>
@@ -69441,7 +69442,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="245" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>538</v>
       </c>
@@ -69494,7 +69495,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="246" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>103987</v>
       </c>
@@ -69556,7 +69557,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="247" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>521</v>
       </c>
@@ -69609,7 +69610,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>103767</v>
       </c>
@@ -69683,7 +69684,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>103445</v>
       </c>
@@ -69742,7 +69743,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>103056</v>
       </c>
@@ -69804,7 +69805,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>102911</v>
       </c>
@@ -69869,7 +69870,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>110426</v>
       </c>
@@ -69937,7 +69938,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>526</v>
       </c>
@@ -69990,7 +69991,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>110510</v>
       </c>
@@ -70049,7 +70050,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>130650</v>
       </c>
@@ -70105,7 +70106,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>130612</v>
       </c>
@@ -70158,7 +70159,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>130608</v>
       </c>
@@ -70214,7 +70215,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>130414</v>
       </c>
@@ -70270,7 +70271,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>128433</v>
       </c>
@@ -70332,7 +70333,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>746</v>
       </c>
@@ -70385,7 +70386,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>126471</v>
       </c>
@@ -70447,7 +70448,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>126182</v>
       </c>
@@ -70509,7 +70510,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>126120</v>
       </c>
@@ -70571,7 +70572,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>125926</v>
       </c>
@@ -70630,7 +70631,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>125803</v>
       </c>
@@ -70692,7 +70693,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>125746</v>
       </c>
@@ -70745,7 +70746,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>124912</v>
       </c>
@@ -70798,7 +70799,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>124757</v>
       </c>
@@ -70857,7 +70858,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>124526</v>
       </c>
@@ -70913,7 +70914,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>124481</v>
       </c>
@@ -70975,7 +70976,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>124239</v>
       </c>
@@ -71037,7 +71038,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>130843</v>
       </c>
@@ -71096,7 +71097,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>123869</v>
       </c>
@@ -71161,7 +71162,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>130906</v>
       </c>
@@ -71217,7 +71218,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>132071</v>
       </c>
@@ -71276,7 +71277,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>142867</v>
       </c>
@@ -71329,7 +71330,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>142484</v>
       </c>
@@ -71382,7 +71383,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>142279</v>
       </c>
@@ -71447,7 +71448,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>142265</v>
       </c>
@@ -71506,7 +71507,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>142004</v>
       </c>
@@ -71568,7 +71569,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>141868</v>
       </c>
@@ -71630,7 +71631,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>141754</v>
       </c>
@@ -71683,7 +71684,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>141611</v>
       </c>
@@ -71742,7 +71743,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>141451</v>
       </c>
@@ -71804,7 +71805,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>141406</v>
       </c>
@@ -71863,7 +71864,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>523</v>
       </c>
@@ -71916,7 +71917,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>137542</v>
       </c>
@@ -71978,7 +71979,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>133543</v>
       </c>
@@ -72031,7 +72032,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>132580</v>
       </c>
@@ -72084,7 +72085,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>132553</v>
       </c>
@@ -72143,7 +72144,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>132274</v>
       </c>
@@ -72208,7 +72209,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>132264</v>
       </c>
@@ -72267,7 +72268,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>131832</v>
       </c>
@@ -72329,7 +72330,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>123648</v>
       </c>
@@ -72388,7 +72389,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>123625</v>
       </c>
@@ -72453,7 +72454,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>122781</v>
       </c>
@@ -72509,7 +72510,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>113397</v>
       </c>
@@ -72574,7 +72575,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>113359</v>
       </c>
@@ -72627,7 +72628,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>113113</v>
       </c>
@@ -72692,7 +72693,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>113103</v>
       </c>
@@ -72763,7 +72764,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>113034</v>
       </c>
@@ -72822,7 +72823,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>112886</v>
       </c>
@@ -72893,7 +72894,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>112863</v>
       </c>
@@ -72952,7 +72953,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>112709</v>
       </c>
@@ -73017,7 +73018,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>112576</v>
       </c>
@@ -73070,7 +73071,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>111879</v>
       </c>
@@ -73135,7 +73136,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>111831</v>
       </c>
@@ -73197,7 +73198,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>111466</v>
       </c>
@@ -73253,7 +73254,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>111309</v>
       </c>
@@ -73321,7 +73322,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>111246</v>
       </c>
@@ -73383,7 +73384,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>110759</v>
       </c>
@@ -73445,7 +73446,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>110750</v>
       </c>
@@ -73510,7 +73511,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>110715</v>
       </c>
@@ -73575,7 +73576,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>114802</v>
       </c>
@@ -73640,7 +73641,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>115025</v>
       </c>
@@ -73702,7 +73703,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>115100</v>
       </c>
@@ -73758,7 +73759,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>537</v>
       </c>
@@ -73811,7 +73812,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>122487</v>
       </c>
@@ -73864,7 +73865,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>122485</v>
       </c>
@@ -73923,7 +73924,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>122441</v>
       </c>
@@ -73982,7 +73983,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>122394</v>
       </c>
@@ -74050,7 +74051,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>121792</v>
       </c>
@@ -74106,7 +74107,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>120433</v>
       </c>
@@ -74165,7 +74166,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>118775</v>
       </c>
@@ -74230,7 +74231,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>118774</v>
       </c>
@@ -74295,7 +74296,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>99552</v>
       </c>
@@ -74354,7 +74355,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>536</v>
       </c>
@@ -74407,7 +74408,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>117910</v>
       </c>
@@ -74478,7 +74479,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>117632</v>
       </c>
@@ -74546,7 +74547,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>117403</v>
       </c>
@@ -74611,7 +74612,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>117330</v>
       </c>
@@ -74673,7 +74674,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>116706</v>
       </c>
@@ -74744,7 +74745,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>116461</v>
       </c>
@@ -74803,7 +74804,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>116034</v>
       </c>
@@ -74862,7 +74863,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>115914</v>
       </c>
@@ -74921,7 +74922,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>117930</v>
       </c>
@@ -74983,7 +74984,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>99889</v>
       </c>
